--- a/Mau_them_san_pham.xlsx
+++ b/Mau_them_san_pham.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Tên sản phẩm *</t>
   </si>
@@ -31,10 +31,10 @@
     <t>Số đăng ký *</t>
   </si>
   <si>
-    <t>Thành phần hoạt tính *</t>
-  </si>
-  <si>
-    <t>Liều lượng *</t>
+    <t>Thành phần hoạt tính</t>
+  </si>
+  <si>
+    <t>Liều lượng</t>
   </si>
   <si>
     <t>Phương pháp đóng gói *</t>
@@ -46,7 +46,7 @@
     <t>Xuất xứ *</t>
   </si>
   <si>
-    <t>Dạng bào chế *</t>
+    <t>Dạng bào chế</t>
   </si>
   <si>
     <t>Hạn mức thông báo *</t>
@@ -79,46 +79,49 @@
     <t>Mô tả</t>
   </si>
   <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>Thuốc Giảm Đau</t>
+  </si>
+  <si>
+    <t>Thực Phẩm Bổ Sung</t>
+  </si>
+  <si>
+    <t>Thuốc Nhỏ Mắt</t>
+  </si>
+  <si>
+    <t>Thuốc Dị Ứng</t>
+  </si>
+  <si>
     <t>Thuốc Ho</t>
   </si>
   <si>
-    <t>Thực Phẩm Chức Năng</t>
-  </si>
-  <si>
-    <t>Giảm Đau Hạ Sốt</t>
-  </si>
-  <si>
     <t>Thuốc Kháng Sinh</t>
   </si>
   <si>
+    <t>Thuốc Tim Mạch</t>
+  </si>
+  <si>
     <t>Thuốc Tiêu Hóa</t>
   </si>
   <si>
-    <t>Thuốc Dị Ứng</t>
-  </si>
-  <si>
-    <t>Thuốc Nhỏ Mắt Mũi</t>
-  </si>
-  <si>
-    <t>Thuốc Tim Mạch</t>
+    <t>Vỉ</t>
+  </si>
+  <si>
+    <t>Hộp</t>
+  </si>
+  <si>
+    <t>Chai</t>
   </si>
   <si>
     <t>Viên</t>
   </si>
   <si>
-    <t>Vỉ</t>
-  </si>
-  <si>
-    <t>Hộp</t>
-  </si>
-  <si>
-    <t>Chai</t>
+    <t>Tuýp</t>
   </si>
   <si>
     <t>Gói</t>
-  </si>
-  <si>
-    <t>Tuýt</t>
   </si>
   <si>
     <t>Lọ</t>
@@ -759,7 +762,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -768,12 +771,12 @@
     <col min="1" max="1" width="15.40234375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.52734375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.36328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="12.484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.76953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="10.89453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.5859375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.54296875" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="9.82421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.0" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.40625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.73046875" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="16.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="9.2109375" customWidth="true" bestFit="true"/>
@@ -784,6 +787,7 @@
     <col min="17" max="17" width="14.59765625" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="13.2734375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="6.5078125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="4.75" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -841,8 +845,11 @@
       <c r="R1" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="10">
+      <c r="S1" t="s" s="6">
         <v>18</v>
+      </c>
+      <c r="T1" t="s" s="10">
+        <v>19</v>
       </c>
     </row>
     <row r="2">
@@ -864,7 +871,8 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="11"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="8"/>
@@ -885,7 +893,8 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="11"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="9"/>
@@ -906,7 +915,8 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="12"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="8"/>
@@ -927,7 +937,8 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
-      <c r="S5" s="11"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="8"/>
@@ -948,7 +959,8 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="11"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="9"/>
@@ -969,7 +981,8 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="12"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
@@ -990,7 +1003,8 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="11"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="8"/>
@@ -1011,7 +1025,8 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
-      <c r="S9" s="11"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="9"/>
@@ -1032,7 +1047,8 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="12"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="8"/>
@@ -1053,7 +1069,8 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
-      <c r="S11" s="11"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="8"/>
@@ -1074,7 +1091,8 @@
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
-      <c r="S12" s="11"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="9"/>
@@ -1095,7 +1113,8 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="12"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="12"/>
     </row>
     <row r="14">
       <c r="A14" s="8"/>
@@ -1116,7 +1135,8 @@
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="11"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="8"/>
@@ -1137,7 +1157,8 @@
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
-      <c r="S15" s="11"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="9"/>
@@ -1158,7 +1179,8 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="12"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="12"/>
     </row>
     <row r="17">
       <c r="A17" s="8"/>
@@ -1179,7 +1201,8 @@
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
-      <c r="S17" s="11"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="8"/>
@@ -1200,7 +1223,8 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="11"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="9"/>
@@ -1221,7 +1245,8 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="12"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20">
       <c r="A20" s="8"/>
@@ -1242,7 +1267,8 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="11"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="8"/>
@@ -1263,7 +1289,8 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="S21" s="11"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="9"/>
@@ -1284,7 +1311,8 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="12"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23">
       <c r="A23" s="8"/>
@@ -1305,7 +1333,8 @@
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
-      <c r="S23" s="11"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="8"/>
@@ -1326,7 +1355,8 @@
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="11"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="9"/>
@@ -1347,7 +1377,8 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="12"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26">
       <c r="A26" s="8"/>
@@ -1368,7 +1399,8 @@
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
-      <c r="S26" s="11"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="8"/>
@@ -1389,7 +1421,8 @@
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
-      <c r="S27" s="11"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28">
       <c r="A28" s="9"/>
@@ -1410,7 +1443,8 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="12"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29">
       <c r="A29" s="8"/>
@@ -1431,7 +1465,8 @@
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
-      <c r="S29" s="11"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30">
       <c r="A30" s="8"/>
@@ -1452,7 +1487,8 @@
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="11"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="11"/>
     </row>
     <row r="31">
       <c r="A31" s="9"/>
@@ -1473,7 +1509,8 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="12"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="12"/>
     </row>
     <row r="32">
       <c r="A32" s="8"/>
@@ -1494,7 +1531,8 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="11"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -1515,7 +1553,8 @@
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="11"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="11"/>
     </row>
     <row r="34">
       <c r="A34" s="9"/>
@@ -1536,7 +1575,8 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="12"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="12"/>
     </row>
     <row r="35">
       <c r="A35" s="8"/>
@@ -1557,7 +1597,8 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="11"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="11"/>
     </row>
     <row r="36">
       <c r="A36" s="8"/>
@@ -1578,7 +1619,8 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="11"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="11"/>
     </row>
     <row r="37">
       <c r="A37" s="9"/>
@@ -1599,7 +1641,8 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="12"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="12"/>
     </row>
     <row r="38">
       <c r="A38" s="8"/>
@@ -1620,7 +1663,8 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="11"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="11"/>
     </row>
     <row r="39">
       <c r="A39" s="8"/>
@@ -1641,7 +1685,8 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="11"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="11"/>
     </row>
     <row r="40">
       <c r="A40" s="9"/>
@@ -1662,7 +1707,8 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="12"/>
     </row>
     <row r="41">
       <c r="A41" s="8"/>
@@ -1683,7 +1729,8 @@
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="11"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="11"/>
     </row>
     <row r="42">
       <c r="A42" s="8"/>
@@ -1704,7 +1751,8 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="11"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="11"/>
     </row>
     <row r="43">
       <c r="A43" s="9"/>
@@ -1725,7 +1773,8 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="12"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="12"/>
     </row>
     <row r="44">
       <c r="A44" s="8"/>
@@ -1746,7 +1795,8 @@
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="11"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="11"/>
     </row>
     <row r="45">
       <c r="A45" s="8"/>
@@ -1767,7 +1817,8 @@
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="11"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="11"/>
     </row>
     <row r="46">
       <c r="A46" s="9"/>
@@ -1788,7 +1839,8 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="12"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="12"/>
     </row>
     <row r="47">
       <c r="A47" s="8"/>
@@ -1809,7 +1861,8 @@
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
-      <c r="S47" s="11"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="11"/>
     </row>
     <row r="48">
       <c r="A48" s="8"/>
@@ -1830,7 +1883,8 @@
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
-      <c r="S48" s="11"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="11"/>
     </row>
     <row r="49">
       <c r="A49" s="9"/>
@@ -1851,7 +1905,8 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="12"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="12"/>
     </row>
     <row r="50">
       <c r="A50" s="8"/>
@@ -1872,7 +1927,8 @@
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
-      <c r="S50" s="11"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="11"/>
     </row>
     <row r="51">
       <c r="A51" s="8"/>
@@ -1893,7 +1949,8 @@
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
-      <c r="S51" s="11"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="11"/>
     </row>
     <row r="52">
       <c r="A52" s="9"/>
@@ -1914,7 +1971,8 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
-      <c r="S52" s="12"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="12"/>
     </row>
     <row r="53">
       <c r="A53" s="8"/>
@@ -1935,7 +1993,8 @@
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
-      <c r="S53" s="11"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="11"/>
     </row>
     <row r="54">
       <c r="A54" s="8"/>
@@ -1956,7 +2015,8 @@
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
-      <c r="S54" s="11"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="11"/>
     </row>
     <row r="55">
       <c r="A55" s="9"/>
@@ -1977,7 +2037,8 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
-      <c r="S55" s="12"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="12"/>
     </row>
     <row r="56">
       <c r="A56" s="8"/>
@@ -1998,7 +2059,8 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
-      <c r="S56" s="11"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="11"/>
     </row>
     <row r="57">
       <c r="A57" s="8"/>
@@ -2019,7 +2081,8 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
-      <c r="S57" s="11"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="11"/>
     </row>
     <row r="58">
       <c r="A58" s="9"/>
@@ -2040,7 +2103,8 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="12"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="12"/>
     </row>
     <row r="59">
       <c r="A59" s="8"/>
@@ -2061,7 +2125,8 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="11"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="11"/>
     </row>
     <row r="60">
       <c r="A60" s="8"/>
@@ -2082,7 +2147,8 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
-      <c r="S60" s="11"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="11"/>
     </row>
     <row r="61">
       <c r="A61" s="9"/>
@@ -2103,10 +2169,11 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="12"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="300">
+  <mergeCells count="320">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -2122,6 +2189,7 @@
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="S2:S4"/>
+    <mergeCell ref="T2:T4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
@@ -2137,6 +2205,7 @@
     <mergeCell ref="Q5:Q7"/>
     <mergeCell ref="R5:R7"/>
     <mergeCell ref="S5:S7"/>
+    <mergeCell ref="T5:T7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
@@ -2152,6 +2221,7 @@
     <mergeCell ref="Q8:Q10"/>
     <mergeCell ref="R8:R10"/>
     <mergeCell ref="S8:S10"/>
+    <mergeCell ref="T8:T10"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -2167,6 +2237,7 @@
     <mergeCell ref="Q11:Q13"/>
     <mergeCell ref="R11:R13"/>
     <mergeCell ref="S11:S13"/>
+    <mergeCell ref="T11:T13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="C14:C16"/>
@@ -2182,6 +2253,7 @@
     <mergeCell ref="Q14:Q16"/>
     <mergeCell ref="R14:R16"/>
     <mergeCell ref="S14:S16"/>
+    <mergeCell ref="T14:T16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
@@ -2197,6 +2269,7 @@
     <mergeCell ref="Q17:Q19"/>
     <mergeCell ref="R17:R19"/>
     <mergeCell ref="S17:S19"/>
+    <mergeCell ref="T17:T19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
@@ -2212,6 +2285,7 @@
     <mergeCell ref="Q20:Q22"/>
     <mergeCell ref="R20:R22"/>
     <mergeCell ref="S20:S22"/>
+    <mergeCell ref="T20:T22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
@@ -2227,6 +2301,7 @@
     <mergeCell ref="Q23:Q25"/>
     <mergeCell ref="R23:R25"/>
     <mergeCell ref="S23:S25"/>
+    <mergeCell ref="T23:T25"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="B26:B28"/>
     <mergeCell ref="C26:C28"/>
@@ -2242,6 +2317,7 @@
     <mergeCell ref="Q26:Q28"/>
     <mergeCell ref="R26:R28"/>
     <mergeCell ref="S26:S28"/>
+    <mergeCell ref="T26:T28"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
@@ -2257,6 +2333,7 @@
     <mergeCell ref="Q29:Q31"/>
     <mergeCell ref="R29:R31"/>
     <mergeCell ref="S29:S31"/>
+    <mergeCell ref="T29:T31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="C32:C34"/>
@@ -2272,6 +2349,7 @@
     <mergeCell ref="Q32:Q34"/>
     <mergeCell ref="R32:R34"/>
     <mergeCell ref="S32:S34"/>
+    <mergeCell ref="T32:T34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
     <mergeCell ref="C35:C37"/>
@@ -2287,6 +2365,7 @@
     <mergeCell ref="Q35:Q37"/>
     <mergeCell ref="R35:R37"/>
     <mergeCell ref="S35:S37"/>
+    <mergeCell ref="T35:T37"/>
     <mergeCell ref="A38:A40"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="C38:C40"/>
@@ -2302,6 +2381,7 @@
     <mergeCell ref="Q38:Q40"/>
     <mergeCell ref="R38:R40"/>
     <mergeCell ref="S38:S40"/>
+    <mergeCell ref="T38:T40"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="C41:C43"/>
@@ -2317,6 +2397,7 @@
     <mergeCell ref="Q41:Q43"/>
     <mergeCell ref="R41:R43"/>
     <mergeCell ref="S41:S43"/>
+    <mergeCell ref="T41:T43"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
@@ -2332,6 +2413,7 @@
     <mergeCell ref="Q44:Q46"/>
     <mergeCell ref="R44:R46"/>
     <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:T46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="C47:C49"/>
@@ -2347,6 +2429,7 @@
     <mergeCell ref="Q47:Q49"/>
     <mergeCell ref="R47:R49"/>
     <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="C50:C52"/>
@@ -2362,6 +2445,7 @@
     <mergeCell ref="Q50:Q52"/>
     <mergeCell ref="R50:R52"/>
     <mergeCell ref="S50:S52"/>
+    <mergeCell ref="T50:T52"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="C53:C55"/>
@@ -2377,6 +2461,7 @@
     <mergeCell ref="Q53:Q55"/>
     <mergeCell ref="R53:R55"/>
     <mergeCell ref="S53:S55"/>
+    <mergeCell ref="T53:T55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="C56:C58"/>
@@ -2392,6 +2477,7 @@
     <mergeCell ref="Q56:Q58"/>
     <mergeCell ref="R56:R58"/>
     <mergeCell ref="S56:S58"/>
+    <mergeCell ref="T56:T58"/>
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="C59:C61"/>
@@ -2407,6 +2493,7 @@
     <mergeCell ref="Q59:Q61"/>
     <mergeCell ref="R59:R61"/>
     <mergeCell ref="S59:S61"/>
+    <mergeCell ref="T59:T61"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" sqref="B2:B61" allowBlank="true" errorStyle="stop">
@@ -2433,42 +2520,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2486,37 +2573,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2534,12 +2621,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
